--- a/системы счисления.xlsx
+++ b/системы счисления.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\teach\teacher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Лектор\lot\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,10 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Продвинутый" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -156,6 +156,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,12 +186,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,11 +218,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -223,6 +250,58 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Прямая со стрелкой 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8829675" y="742950"/>
+          <a:ext cx="876300" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="S46" sqref="S46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -537,51 +616,51 @@
       </c>
       <c r="C6" s="3">
         <f ca="1">ROUND(RAND() * 511,0)</f>
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D6" t="str">
         <f ca="1">DEC2BIN(C6)</f>
-        <v>11111011</v>
+        <v>100001101</v>
       </c>
       <c r="E6" t="str">
         <f ca="1">DEC2OCT( C6)</f>
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="F6" t="str">
         <f ca="1">DEC2HEX(C6 )</f>
-        <v>FB</v>
+        <v>10D</v>
       </c>
       <c r="G6" s="3">
         <f ca="1">ROUND(RAND() * 511,0)</f>
-        <v>424</v>
+        <v>14</v>
       </c>
       <c r="H6" t="str">
         <f ca="1">DEC2BIN(G6)</f>
-        <v>110101000</v>
+        <v>1110</v>
       </c>
       <c r="I6" t="str">
         <f ca="1">DEC2OCT( G6)</f>
-        <v>650</v>
+        <v>16</v>
       </c>
       <c r="J6" t="str">
         <f ca="1">DEC2HEX(G6 )</f>
-        <v>1A8</v>
+        <v>E</v>
       </c>
       <c r="K6" s="3">
         <f ca="1">ROUND(RAND() * 511,0)</f>
-        <v>436</v>
+        <v>23</v>
       </c>
       <c r="L6" t="str">
         <f ca="1">DEC2BIN(K6)</f>
-        <v>110110100</v>
+        <v>10111</v>
       </c>
       <c r="M6" t="str">
         <f ca="1">DEC2OCT( K6)</f>
-        <v>664</v>
+        <v>27</v>
       </c>
       <c r="N6" t="str">
         <f ca="1">DEC2HEX(K6 )</f>
-        <v>1B4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -590,51 +669,51 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C35" ca="1" si="0">ROUND(RAND() * 511,0)</f>
-        <v>383</v>
+        <v>233</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ref="D7:D35" ca="1" si="1">DEC2BIN(C7)</f>
-        <v>101111111</v>
+        <v>11101001</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ref="E7:E35" ca="1" si="2">DEC2OCT( C7)</f>
-        <v>577</v>
+        <v>351</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ref="F7:F35" ca="1" si="3">DEC2HEX(C7 )</f>
-        <v>17F</v>
+        <v>E9</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" ref="G7:G35" ca="1" si="4">ROUND(RAND() * 511,0)</f>
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" ref="H7:H35" ca="1" si="5">DEC2BIN(G7)</f>
-        <v>10110100</v>
+        <v>110001010</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" ref="I7:I35" ca="1" si="6">DEC2OCT( G7)</f>
-        <v>264</v>
+        <v>612</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" ref="J7:J35" ca="1" si="7">DEC2HEX(G7 )</f>
-        <v>B4</v>
+        <v>18A</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" ref="K7:K35" ca="1" si="8">ROUND(RAND() * 511,0)</f>
-        <v>189</v>
+        <v>297</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" ref="L7:L35" ca="1" si="9">DEC2BIN(K7)</f>
-        <v>10111101</v>
+        <v>100101001</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" ref="M7:M35" ca="1" si="10">DEC2OCT( K7)</f>
-        <v>275</v>
+        <v>451</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" ref="N7:N35" ca="1" si="11">DEC2HEX(K7 )</f>
-        <v>BD</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -643,51 +722,51 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>101111000</v>
+        <v>100110101</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>570</v>
+        <v>465</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>501</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>111110101</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>765</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1F5</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>474</v>
+        <v>168</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>111011010</v>
+        <v>10101000</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>732</v>
+        <v>250</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1DA</v>
+        <v>A8</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -696,51 +775,51 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>100110011</v>
+        <v>11101011</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>463</v>
+        <v>353</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>133</v>
+        <v>EB</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>101110000</v>
+        <v>101100000</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10010111</v>
+        <v>11000110</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>97</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -749,51 +828,51 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1111101</v>
+        <v>11001000</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>175</v>
+        <v>310</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>7D</v>
+        <v>C8</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>294</v>
+        <v>364</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>100100110</v>
+        <v>101101100</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>446</v>
+        <v>554</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>126</v>
+        <v>16C</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>269</v>
+        <v>499</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>100001101</v>
+        <v>111110011</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>415</v>
+        <v>763</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>10D</v>
+        <v>1F3</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -802,51 +881,51 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10010</v>
+        <v>11001000</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>C8</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11111010</v>
+        <v>111010110</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>372</v>
+        <v>726</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>FA</v>
+        <v>1D6</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>101101110</v>
+        <v>110011011</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>16E</v>
+        <v>19B</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -855,51 +934,51 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>229</v>
+        <v>499</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>11100101</v>
+        <v>111110011</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>345</v>
+        <v>763</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>E5</v>
+        <v>1F3</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>288</v>
+        <v>47</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>100100000</v>
+        <v>101111</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>440</v>
+        <v>57</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>120</v>
+        <v>2F</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>100111001</v>
+        <v>101000001</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -908,51 +987,51 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1001100</v>
+        <v>101111110</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>576</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4C</v>
+        <v>17E</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>122</v>
+        <v>437</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1111010</v>
+        <v>110110101</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>172</v>
+        <v>665</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>7A</v>
+        <v>1B5</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1111111</v>
+        <v>1000000</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>7F</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -961,51 +1040,51 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1001111</v>
+        <v>11010</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4F</v>
+        <v>1A</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>249</v>
+        <v>481</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11111001</v>
+        <v>111100001</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>371</v>
+        <v>741</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F9</v>
+        <v>1E1</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11001000</v>
+        <v>10101</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>310</v>
+        <v>25</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>C8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1014,51 +1093,51 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>340</v>
+        <v>107</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>101010100</v>
+        <v>1101011</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>524</v>
+        <v>153</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>154</v>
+        <v>6B</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>162</v>
+        <v>487</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>10100010</v>
+        <v>111100111</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>242</v>
+        <v>747</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>A2</v>
+        <v>1E7</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>197</v>
+        <v>347</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11000101</v>
+        <v>101011011</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>305</v>
+        <v>533</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>C5</v>
+        <v>15B</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1067,51 +1146,51 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>321</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>110100</v>
+        <v>101000001</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>501</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>327</v>
+        <v>453</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>101000111</v>
+        <v>111000101</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>507</v>
+        <v>705</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>147</v>
+        <v>1C5</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>100110001</v>
+        <v>1100001</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>461</v>
+        <v>141</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="S16" s="2"/>
     </row>
@@ -1121,51 +1200,51 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>247</v>
+        <v>2</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>11110111</v>
+        <v>10</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>367</v>
+        <v>2</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F7</v>
+        <v>2</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>400</v>
+        <v>97</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>110010000</v>
+        <v>1100001</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>620</v>
+        <v>141</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>110011001</v>
+        <v>10100</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>631</v>
+        <v>24</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>199</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
@@ -1174,51 +1253,51 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>320</v>
+        <v>392</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>101000000</v>
+        <v>110001000</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>500</v>
+        <v>610</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>111000</v>
+        <v>10010011</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>423</v>
+        <v>361</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>110100111</v>
+        <v>101101001</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>647</v>
+        <v>551</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1A7</v>
+        <v>169</v>
       </c>
       <c r="R18" t="s">
         <v>29</v>
@@ -1230,51 +1309,51 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>100001001</v>
+        <v>11111110</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>109</v>
+        <v>FE</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>136</v>
+        <v>350</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>10001000</v>
+        <v>101011110</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>210</v>
+        <v>536</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>15E</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>443</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>111010</v>
+        <v>110111011</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>72</v>
+        <v>673</v>
       </c>
       <c r="N19" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>3A</v>
+        <v>1BB</v>
       </c>
       <c r="R19">
         <v>341</v>
@@ -1286,51 +1365,51 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1100001</v>
+        <v>11010</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>1A</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>199</v>
+        <v>431</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11000111</v>
+        <v>110101111</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>307</v>
+        <v>657</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C7</v>
+        <v>1AF</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>110110010</v>
+        <v>110000010</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>662</v>
+        <v>602</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1B2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
@@ -1339,51 +1418,51 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>11111001</v>
+        <v>100001110</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F9</v>
+        <v>10E</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>284</v>
+        <v>163</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>100011100</v>
+        <v>10100011</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>434</v>
+        <v>243</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>11C</v>
+        <v>A3</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>101111101</v>
+        <v>111110110</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>575</v>
+        <v>766</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>17D</v>
+        <v>1F6</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -1392,51 +1471,51 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>487</v>
+        <v>38</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>111100111</v>
+        <v>100110</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>747</v>
+        <v>46</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1E7</v>
+        <v>26</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>273</v>
+        <v>9</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>100010001</v>
+        <v>1001</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>421</v>
+        <v>11</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>328</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1101</v>
+        <v>101001000</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>15</v>
+        <v>510</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>D</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -1445,51 +1524,51 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>386</v>
+        <v>471</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>110000010</v>
+        <v>111010111</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>602</v>
+        <v>727</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>182</v>
+        <v>1D7</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>111110000</v>
+        <v>111010000</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1F0</v>
+        <v>1D0</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11001111</v>
+        <v>11100001</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>CF</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -1498,51 +1577,51 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>353</v>
+        <v>168</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>101100001</v>
+        <v>10101000</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>541</v>
+        <v>250</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>161</v>
+        <v>A8</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>255</v>
+        <v>317</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11111111</v>
+        <v>100111101</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>377</v>
+        <v>475</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>FF</v>
+        <v>13D</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>100001001</v>
+        <v>10101100</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>411</v>
+        <v>254</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>109</v>
+        <v>AC</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
@@ -1551,51 +1630,51 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>333</v>
+        <v>485</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>101001101</v>
+        <v>111100101</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>515</v>
+        <v>745</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>14D</v>
+        <v>1E5</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>110100</v>
+        <v>11101010</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>352</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>EA</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>411</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10010</v>
+        <v>110011011</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>22</v>
+        <v>633</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
+        <v>19B</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
@@ -1604,51 +1683,51 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>486</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10010101</v>
+        <v>111100110</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>225</v>
+        <v>746</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>1E6</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>343</v>
+        <v>45</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>101010111</v>
+        <v>101101</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>527</v>
+        <v>55</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>157</v>
+        <v>2D</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>165</v>
+        <v>509</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10100101</v>
+        <v>111111101</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>245</v>
+        <v>775</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>A5</v>
+        <v>1FD</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
@@ -1657,51 +1736,51 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>100111</v>
+        <v>1101001</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>289</v>
+        <v>90</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>100100001</v>
+        <v>1011010</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>441</v>
+        <v>132</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>121</v>
+        <v>5A</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>150</v>
+        <v>379</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10010110</v>
+        <v>101111011</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>226</v>
+        <v>573</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>96</v>
+        <v>17B</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
@@ -1710,51 +1789,51 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000011</v>
+        <v>10001101</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>8D</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>101110100</v>
+        <v>101111011</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>174</v>
+        <v>17B</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>110001011</v>
+        <v>110001111</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>18B</v>
+        <v>18F</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -1763,51 +1842,51 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>393</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1101010</v>
+        <v>110001001</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>152</v>
+        <v>611</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>6A</v>
+        <v>189</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>430</v>
+        <v>296</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>110101110</v>
+        <v>100101000</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>656</v>
+        <v>450</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1AE</v>
+        <v>128</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11000</v>
+        <v>1110011</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
@@ -1816,51 +1895,51 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>110001110</v>
+        <v>110011101</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>18E</v>
+        <v>19D</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>252</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>111000</v>
+        <v>11111100</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>374</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <v>FC</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>455</v>
+        <v>348</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>111000111</v>
+        <v>101011100</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>707</v>
+        <v>534</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1C7</v>
+        <v>15C</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
@@ -1869,51 +1948,51 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>101100001</v>
+        <v>11100011</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>541</v>
+        <v>343</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>161</v>
+        <v>E3</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1100111</v>
+        <v>1101</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>D</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1010100</v>
+        <v>10011111</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>54</v>
+        <v>9F</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,51 +2001,51 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>11011110</v>
+        <v>10100101</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>336</v>
+        <v>245</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DE</v>
+        <v>A5</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>10110101</v>
+        <v>1010001</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>265</v>
+        <v>121</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>B5</v>
+        <v>51</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>29</v>
+        <v>486</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>11101</v>
+        <v>111100110</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>746</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1D</v>
+        <v>1E6</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,51 +2054,51 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>111001</v>
+        <v>11111</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>1F</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>352</v>
+        <v>115</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>101100000</v>
+        <v>1110011</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>540</v>
+        <v>163</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10101110</v>
+        <v>11111111</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>256</v>
+        <v>377</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>AE</v>
+        <v>FF</v>
       </c>
     </row>
     <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
@@ -2028,51 +2107,51 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>437</v>
+        <v>272</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>110110101</v>
+        <v>100010000</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>665</v>
+        <v>420</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1B5</v>
+        <v>110</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>100101010</v>
+        <v>100101001</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>12A</v>
+        <v>129</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>111001111</v>
+        <v>110100110</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>717</v>
+        <v>646</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1CF</v>
+        <v>1A6</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3421,24 +3500,177 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="Q4:S8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f>IF(OR(A1&lt;0,A1&gt;100),"много","в самый раз")</f>
+        <v>много</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>